--- a/tm-user-input_parameters.xlsx
+++ b/tm-user-input_parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="293">
   <si>
     <t xml:space="preserve">TEMPLATE FOR INPUT PARAMETERS FOR THE steady_surrogate PYTHON PACKAGE</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Name of TELEMAC steering file (.cas)</t>
   </si>
   <si>
-    <t xml:space="preserve">t2d-donau.cas</t>
+    <t xml:space="preserve">t2d_weirs.cas</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Simulation path</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/amintvm/modeling/hybayescal/simulationxxx/</t>
+    <t xml:space="preserve">/home/amintvm/modeling/hybayescal/simulation2xxxx/</t>
   </si>
   <si>
     <t xml:space="preserve">Copy path from file explorer. Results will be stored in a sub-folder called "auto-results"</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Parameter sampling for initial runs (init_run_sampling)</t>
   </si>
   <si>
-    <t xml:space="preserve">MIN - equal interval - MAX</t>
+    <t xml:space="preserve">MIN - random - MAX</t>
   </si>
   <si>
     <t xml:space="preserve">Choose how values for the initial full-complexity run should be sampled</t>
@@ -186,25 +186,25 @@
     <t xml:space="preserve">Calibration quantity 1 (calib_target1)</t>
   </si>
   <si>
+    <t xml:space="preserve">DEPTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary measurement data (at least one set needed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration quantity 2 (calib_target2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VELOCITY U</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary measurement data (at least one set needed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration quantity 2 (calib_target2)</t>
+    <t xml:space="preserve">Optional second measurement dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration quantity 3 (calib_target3)</t>
   </si>
   <si>
     <t xml:space="preserve">VELOCITY V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional second measurement dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration quantity 3 (calib_target3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPTH</t>
   </si>
   <si>
     <t xml:space="preserve">Optional third measurement dataset (computationally very demanding!)</t>
@@ -237,19 +237,13 @@
     <t xml:space="preserve">INITIAL ELEVATION</t>
   </si>
   <si>
-    <t xml:space="preserve">307, 312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUGHNESS COEFFICIENT OF BOUNDARIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01,0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIME STEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5,2</t>
+    <t xml:space="preserve">1.3,1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELOCITY DIFFUSIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1.5</t>
   </si>
   <si>
     <t xml:space="preserve">*** TELEMAC2D PARAMETERS ***</t>
@@ -508,6 +502,9 @@
     <t xml:space="preserve">str</t>
   </si>
   <si>
+    <t xml:space="preserve">MIN - equal interval - MAX</t>
+  </si>
+  <si>
     <t xml:space="preserve">INITIAL DEPTH</t>
   </si>
   <si>
@@ -517,9 +514,6 @@
     <t xml:space="preserve">float or int</t>
   </si>
   <si>
-    <t xml:space="preserve">MIN - random - MAX</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAW OF BOTTOM FRICTION</t>
   </si>
   <si>
@@ -685,6 +679,9 @@
     <t xml:space="preserve">strongly adviced for any open surface flows</t>
   </si>
   <si>
+    <t xml:space="preserve">TIME STEP</t>
+  </si>
+  <si>
     <t xml:space="preserve">simulation time steps</t>
   </si>
   <si>
@@ -923,6 +920,9 @@
   </si>
   <si>
     <t xml:space="preserve">1-Zyserman, 2-Bijker, 3-Van Rijn, 4-Soulsby-Van Rijn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUGHNESS COEFFICIENT OF BOUNDARIES</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1750,7 +1750,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -1938,7 +1938,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="22" t="str">
-        <f aca="false">VLOOKUP(A32,ignore!$A$8:$D$96,4,0)</f>
+        <f aca="false">VLOOKUP(A32,ignore!$A$8:$D$97,4,0)</f>
         <v>float or int</v>
       </c>
       <c r="D32" s="0" t="e">
@@ -1953,9 +1953,9 @@
       <c r="B33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="22" t="e">
-        <f aca="false">VLOOKUP(A33,ignore!$A$8:$D$94,4,0)</f>
-        <v>#N/A</v>
+      <c r="C33" s="22" t="str">
+        <f aca="false">VLOOKUP(A33,ignore!$A$8:$D$97,4,0)</f>
+        <v>float or int</v>
       </c>
       <c r="D33" s="23" t="e">
         <f aca="false">VLOOKUP(A33,ignore!$A$8:$C$94,3,0)</f>
@@ -1966,27 +1966,25 @@
       <c r="A34" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="B34" s="13"/>
       <c r="C34" s="2" t="str">
-        <f aca="false">VLOOKUP(A34,ignore!$A$8:$D$94,4,0)</f>
-        <v>int</v>
+        <f aca="false">VLOOKUP(A34,ignore!$A$8:$D$97,4,0)</f>
+        <v>select</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">VLOOKUP(A34,ignore!$A$8:$C$94,3,0)</f>
-        <v>simulation time steps</v>
+        <v>Select a Parameter for more information</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f aca="false">VLOOKUP(A35,ignore!$A$8:$D$94,4,0)</f>
+        <f aca="false">VLOOKUP(A35,ignore!$A$8:$D$97,4,0)</f>
         <v>select</v>
       </c>
       <c r="D35" s="0" t="str">
@@ -1996,10 +1994,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>6</v>
@@ -2010,24 +2008,24 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="str">
         <f aca="false">VLOOKUP(A39,ignore!$A$8:$D$94,4,0)</f>
@@ -2040,10 +2038,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="24" t="str">
         <f aca="false">VLOOKUP(A40,ignore!$A$8:$D$94,4,0)</f>
@@ -2057,10 +2055,10 @@
     <row r="41" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>6</v>
@@ -2082,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,10 +2099,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>6</v>
@@ -2115,51 +2113,51 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="24" t="str">
         <f aca="false">VLOOKUP(A48,ignore!$A$8:$D$94,4,0)</f>
         <v>select</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="24" t="str">
         <f aca="false">VLOOKUP(A49,ignore!$A$8:$D$94,4,0)</f>
         <v>select</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="34"/>
@@ -2167,10 +2165,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" s="37" t="str">
         <f aca="false">VLOOKUP(A53,ignore!$A$8:$D$94,4)</f>
@@ -2183,10 +2181,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="37" t="str">
         <f aca="false">VLOOKUP(A54,ignore!$A$8:$D$94,4)</f>
@@ -2199,10 +2197,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" s="37" t="str">
         <f aca="false">VLOOKUP(A55,ignore!$A$8:$D$94,4)</f>
@@ -2215,10 +2213,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="41" t="str">
         <f aca="false">VLOOKUP(A56,ignore!$A$8:$D$94,4)</f>
@@ -2231,10 +2229,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>6</v>
@@ -2245,24 +2243,24 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>73</v>
-      </c>
-      <c r="C59" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C60" s="45" t="str">
         <f aca="false">VLOOKUP(A60,ignore!$A$8:$D$94,4,0)</f>
@@ -2275,10 +2273,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>6</v>
@@ -2300,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2311,7 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="D43:D44"/>
   </mergeCells>
-  <dataValidations count="10">
+  <dataValidations count="11">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B14" type="list">
       <formula1>ignore!$A$4:$A$5</formula1>
       <formula2>0</formula2>
@@ -2322,7 +2320,7 @@
       <formula1>ignore!$F$4:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A34:A35 A38:A40 A48:A49 A53:A56 A60" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A35 A38:A40 A48:A49 A53:A56 A60" type="list">
       <formula1>ignore!$A$8:$A$94</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2347,11 +2345,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A32" type="list">
-      <formula1>ignore!$A$8:$A$96</formula1>
+      <formula1>ignore!$A$8:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A33" type="list">
-      <formula1>ignore!$A$8:$A$95</formula1>
+      <formula1>ignore!$A$8:$A$97</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A34" type="list">
+      <formula1>ignore!$A$8:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2373,10 +2375,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D101" activeCellId="0" sqref="D101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2393,18 +2395,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,51 +2423,51 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="51" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="52" t="n">
         <v>0.0001</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>18</v>
@@ -2473,67 +2475,67 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="52" t="n">
         <v>1E-006</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="52" t="n">
         <v>1E-006</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="52" t="n">
         <v>1E-006</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>57</v>
@@ -2541,161 +2543,161 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="F18" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="G18" s="50" t="s">
         <v>132</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.03</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.6</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G21" s="53"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.55</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
@@ -2703,165 +2705,165 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="F26" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="F27" s="17" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>22</v>
@@ -2869,13 +2871,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>60</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>22</v>
@@ -2883,13 +2885,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>22</v>
@@ -2897,13 +2899,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>200</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>22</v>
@@ -2911,13 +2913,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8000</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>22</v>
@@ -2925,13 +2927,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>22</v>
@@ -2939,55 +2941,55 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="D41" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>22</v>
@@ -2995,13 +2997,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>22</v>
@@ -3009,13 +3011,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>22</v>
@@ -3023,13 +3025,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>22</v>
@@ -3037,13 +3039,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
@@ -3051,13 +3053,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
@@ -3065,139 +3067,139 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" s="52" t="n">
         <v>0.0001</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="52" t="n">
         <v>1E-006</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B51" s="52" t="n">
         <v>1E-009</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" s="52" t="n">
         <v>1E-009</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" s="52" t="n">
         <v>1E-009</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="D54" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>210</v>
-      </c>
       <c r="D56" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>22</v>
@@ -3205,13 +3207,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>22</v>
@@ -3219,13 +3221,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>22</v>
@@ -3233,13 +3235,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>22</v>
@@ -3247,41 +3249,41 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="D62" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>224</v>
-      </c>
       <c r="D63" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D64" s="50" t="s">
         <v>19</v>
@@ -3289,41 +3291,41 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>230</v>
-      </c>
       <c r="D66" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>22</v>
@@ -3331,139 +3333,139 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1.3</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="D74" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B75" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>251</v>
-      </c>
       <c r="D75" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>254</v>
-      </c>
       <c r="D76" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>22</v>
@@ -3471,13 +3473,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>22</v>
@@ -3485,83 +3487,83 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C79" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B82" s="52" t="n">
         <v>0.001</v>
       </c>
       <c r="C82" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>22</v>
@@ -3569,41 +3571,41 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>22</v>
@@ -3611,13 +3613,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>22</v>
@@ -3625,41 +3627,41 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>281</v>
-      </c>
       <c r="D89" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0.8</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>22</v>
@@ -3667,41 +3669,41 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>287</v>
-      </c>
       <c r="D92" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>290</v>
-      </c>
       <c r="D93" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>22</v>
@@ -3709,13 +3711,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3728,18 @@
         <v>309.4</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
